--- a/CustomPlots/data_consistency.xlsx
+++ b/CustomPlots/data_consistency.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt\Documents\kVIS3_bsp_ardupilot\CustomPlots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5954F328-5D14-415A-BF60-10D371BCF399}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE8BE65-C43B-4014-8F2A-9191B975EFA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6840" yWindow="4140" windowWidth="19185" windowHeight="11985" xr2:uid="{BA9E8F30-6C98-CF4B-8E95-183011E815A3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{BA9E8F30-6C98-CF4B-8E95-183011E815A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -171,9 +171,6 @@
     <t>MagZ</t>
   </si>
   <si>
-    <t>Data Consistency</t>
-  </si>
-  <si>
     <t>AccX</t>
   </si>
   <si>
@@ -298,6 +295,9 @@
   </si>
   <si>
     <t>Acc1_{X}</t>
+  </si>
+  <si>
+    <t>DataConsistency</t>
   </si>
 </sst>
 </file>
@@ -663,8 +663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C7D595D-48C5-5044-8E94-F6ADF0970571}">
   <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -699,7 +699,7 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="E3">
         <f>1920-200</f>
@@ -783,19 +783,19 @@
         <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G6" t="s">
         <v>24</v>
       </c>
       <c r="K6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O6">
         <v>1</v>
       </c>
       <c r="R6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -815,19 +815,19 @@
         <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G7" t="s">
         <v>24</v>
       </c>
       <c r="K7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O7">
         <v>1</v>
       </c>
       <c r="R7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -847,19 +847,19 @@
         <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G8" t="s">
         <v>24</v>
       </c>
       <c r="K8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O8">
         <v>1</v>
       </c>
       <c r="R8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -879,19 +879,19 @@
         <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G9" t="s">
         <v>24</v>
       </c>
       <c r="K9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O9">
         <v>1</v>
       </c>
       <c r="R9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -911,19 +911,19 @@
         <v>23</v>
       </c>
       <c r="F10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G10" t="s">
         <v>24</v>
       </c>
       <c r="K10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O10">
         <v>1</v>
       </c>
       <c r="R10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -943,19 +943,19 @@
         <v>23</v>
       </c>
       <c r="F11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G11" t="s">
         <v>24</v>
       </c>
       <c r="K11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O11">
         <v>1</v>
       </c>
       <c r="R11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -975,19 +975,19 @@
         <v>23</v>
       </c>
       <c r="F12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G12" t="s">
         <v>24</v>
       </c>
       <c r="K12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O12">
         <v>1</v>
       </c>
       <c r="R12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -1007,19 +1007,19 @@
         <v>23</v>
       </c>
       <c r="F13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G13" t="s">
         <v>24</v>
       </c>
       <c r="K13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O13">
         <v>1</v>
       </c>
       <c r="R13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -1039,19 +1039,19 @@
         <v>23</v>
       </c>
       <c r="F14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G14" t="s">
         <v>24</v>
       </c>
       <c r="K14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O14">
         <v>1</v>
       </c>
       <c r="R14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -1071,19 +1071,19 @@
         <v>23</v>
       </c>
       <c r="F15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G15" t="s">
         <v>24</v>
       </c>
       <c r="K15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O15">
         <v>1</v>
       </c>
       <c r="R15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -1103,19 +1103,19 @@
         <v>23</v>
       </c>
       <c r="F16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G16" t="s">
         <v>24</v>
       </c>
       <c r="K16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O16">
         <v>1</v>
       </c>
       <c r="R16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
@@ -1135,19 +1135,19 @@
         <v>23</v>
       </c>
       <c r="F17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G17" t="s">
         <v>24</v>
       </c>
       <c r="K17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O17">
         <v>1</v>
       </c>
       <c r="R17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
@@ -1167,19 +1167,19 @@
         <v>23</v>
       </c>
       <c r="F18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G18" t="s">
         <v>24</v>
       </c>
       <c r="K18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O18">
         <v>1</v>
       </c>
       <c r="R18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
@@ -1199,19 +1199,19 @@
         <v>23</v>
       </c>
       <c r="F19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G19" t="s">
         <v>24</v>
       </c>
       <c r="K19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O19">
         <v>1</v>
       </c>
       <c r="R19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
@@ -1231,19 +1231,19 @@
         <v>23</v>
       </c>
       <c r="F20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G20" t="s">
         <v>24</v>
       </c>
       <c r="K20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O20">
         <v>1</v>
       </c>
       <c r="R20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
@@ -1263,19 +1263,19 @@
         <v>23</v>
       </c>
       <c r="F21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G21" t="s">
         <v>24</v>
       </c>
       <c r="K21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O21">
         <v>1</v>
       </c>
       <c r="R21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
@@ -1295,19 +1295,19 @@
         <v>23</v>
       </c>
       <c r="F22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G22" t="s">
         <v>24</v>
       </c>
       <c r="K22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O22">
         <v>1</v>
       </c>
       <c r="R22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
@@ -1327,19 +1327,19 @@
         <v>23</v>
       </c>
       <c r="F23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G23" t="s">
         <v>24</v>
       </c>
       <c r="K23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O23">
         <v>1</v>
       </c>
       <c r="R23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
